--- a/biology/Médecine/Kératinophile/Kératinophile.xlsx
+++ b/biology/Médecine/Kératinophile/Kératinophile.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>K%C3%A9ratinophile</t>
+          <t>Kératinophile</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Kératinophile signifie littéralement "qui aime la kératine".
 Un organisme est dit kératinophile quand il a une affinité particulière pour la kératine. Par exemple les champignons kératinophiles comme les dermatophytes sont capables de se nourrir de la kératine et sont donc responsables d'infections de la peau et des phanères.
